--- a/UNIT1/S3/L1/S3_L1_Scheduler.xlsx
+++ b/UNIT1/S3/L1/S3_L1_Scheduler.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="14">
   <si>
     <t>Traccia:
 - Si considerino 4 processi, che chiameremo P1,P2,P3,P4, con i tempi di esecuzione e di attesa input/output dati in tabella. 
@@ -41,7 +41,7 @@
     <t>P4</t>
   </si>
   <si>
-    <t>Di seguito come prevediamo verranno gestiti i 4 ipotetici processi:</t>
+    <t>Di seguito come prevediamo verranno gestiti i 4 ipotetici processi in monotasking:</t>
   </si>
   <si>
     <t>Processo</t>
@@ -50,12 +50,20 @@
     <t>Start Delay</t>
   </si>
   <si>
+    <t>Di seguito come prevediamo verranno gestiti i 4 ipotetici processi in multitasking:</t>
+  </si>
+  <si>
+    <t>Di seguito come prevediamo verranno gestiti i 4 ipotetici processi in time sharing:</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Comfortaa"/>
+        <b/>
         <color theme="1"/>
+        <sz val="11.0"/>
       </rPr>
-      <t xml:space="preserve">Per lo scenario in questione, con processi che alternano fasi di CPU e I/O, lo scheduling preemptive è generalmente più consigliato rispetto a un approccio cooperativo/non-preemptive.
+      <t xml:space="preserve">Per lo scenario in questione, con processi che alternano fasi di CPU e I/O, lo scheduling multitasking e time sharing sono sicuramente i più efficienti.
 </t>
     </r>
     <r>
@@ -157,7 +165,7 @@
         <color rgb="FF0000FF"/>
         <sz val="11.0"/>
       </rPr>
-      <t xml:space="preserve">Il metodo ottimale è uno scheduling preemptive che:
+      <t xml:space="preserve">Il metodo ottimale, otlre al time sharing, è sicuramente uno scheduling preemptive che:
 </t>
     </r>
     <r>
@@ -199,7 +207,7 @@
     <font/>
     <font>
       <b/>
-      <color theme="8"/>
+      <color rgb="FFFF6D01"/>
       <name val="Comfortaa"/>
     </font>
     <font>
@@ -341,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -372,6 +380,13 @@
     <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -507,11 +522,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="2019858051"/>
-        <c:axId val="2038616483"/>
+        <c:axId val="2001344186"/>
+        <c:axId val="1673717350"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2019858051"/>
+        <c:axId val="2001344186"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -563,10 +578,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2038616483"/>
+        <c:crossAx val="1673717350"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2038616483"/>
+        <c:axId val="1673717350"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -641,7 +656,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2019858051"/>
+        <c:crossAx val="2001344186"/>
         <c:crosses val="max"/>
       </c:valAx>
     </c:plotArea>
@@ -709,7 +724,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$37</c:f>
+              <c:f>Foglio1!$B$54</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -744,12 +759,12 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$38:$A$41</c:f>
+              <c:f>Foglio1!$A$55:$A$58</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$38:$B$41</c:f>
+              <c:f>Foglio1!$B$55:$B$58</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -759,7 +774,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$C$37</c:f>
+              <c:f>Foglio1!$C$54</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -813,12 +828,12 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$38:$A$41</c:f>
+              <c:f>Foglio1!$A$55:$A$58</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$38:$C$41</c:f>
+              <c:f>Foglio1!$C$55:$C$58</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -828,7 +843,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$D$37</c:f>
+              <c:f>Foglio1!$D$54</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -882,12 +897,12 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$38:$A$41</c:f>
+              <c:f>Foglio1!$A$55:$A$58</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$38:$D$41</c:f>
+              <c:f>Foglio1!$D$55:$D$58</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -897,7 +912,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$E$37</c:f>
+              <c:f>Foglio1!$E$54</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -925,22 +940,22 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$38:$A$41</c:f>
+              <c:f>Foglio1!$A$55:$A$58</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$E$38:$E$41</c:f>
+              <c:f>Foglio1!$E$55:$E$58</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="2044557114"/>
-        <c:axId val="247741519"/>
+        <c:axId val="1193830953"/>
+        <c:axId val="1612562083"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2044557114"/>
+        <c:axId val="1193830953"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -992,10 +1007,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247741519"/>
+        <c:crossAx val="1612562083"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="247741519"/>
+        <c:axId val="1612562083"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1070,7 +1085,760 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2044557114"/>
+        <c:crossAx val="1193830953"/>
+        <c:crosses val="max"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Gestione Monotasking</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$32</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$33:$A$36</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$B$33:$B$36</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$C$32</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="6AA84F"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$33:$A$36</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$33:$C$36</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$D$32</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFD966"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$33:$A$36</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$D$33:$D$36</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$E$32</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$33:$A$36</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$33:$E$36</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:overlap val="100"/>
+        <c:axId val="727969787"/>
+        <c:axId val="433860465"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="727969787"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Processo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="433860465"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="433860465"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="727969787"/>
+        <c:crosses val="max"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Start Delay, esecuzione, attesa e esecuzione post attesa</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$78</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$79:$A$89</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$B$79:$B$89</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$C$78</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF9900"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00FF00"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF9900"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C27BA0"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C27BA0"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C27BA0"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$79:$A$89</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$79:$C$89</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$D$78</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="EFEFEF"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$79:$A$89</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$D$79:$D$89</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$E$78</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="0000FF"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$79:$A$89</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$79:$E$89</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:overlap val="100"/>
+        <c:axId val="718095392"/>
+        <c:axId val="2137976039"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="718095392"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Processo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2137976039"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2137976039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="718095392"/>
         <c:crosses val="max"/>
       </c:valAx>
     </c:plotArea>
@@ -1128,7 +1896,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>923925</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6743700" cy="4171950"/>
@@ -1144,6 +1912,56 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6743700" cy="4171950"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 3" title="Grafico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6743700" cy="4171950"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 4" title="Grafico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1494,682 +2312,1015 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="16" t="s">
+    <row r="26">
+      <c r="A26" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="4"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="5"/>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="9"/>
     </row>
     <row r="32">
-      <c r="A32" s="5"/>
-      <c r="E32" s="6"/>
+      <c r="A32" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="7"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="9"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="17" t="s">
+      <c r="A33" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="C33" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="D33" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="E33" s="11">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="11">
+        <v>6.0</v>
+      </c>
+      <c r="C34" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="D34" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="E34" s="11">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="11">
+        <v>9.0</v>
+      </c>
+      <c r="C35" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="D35" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="E35" s="11">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="11">
+        <v>10.0</v>
+      </c>
+      <c r="C36" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="D36" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="E36" s="11">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="4"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="5"/>
+      <c r="E49" s="6"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="7"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="9"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B54" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C54" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D54" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E37" s="17" t="s">
+      <c r="E54" s="17" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="C38" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="D38" s="11">
-        <v>2.0</v>
-      </c>
-      <c r="E38" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="C39" s="11">
-        <v>2.0</v>
-      </c>
-      <c r="D39" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="E39" s="11">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" s="11">
-        <v>6.0</v>
-      </c>
-      <c r="C40" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="D40" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="E40" s="11">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" s="11">
-        <v>7.0</v>
-      </c>
-      <c r="C41" s="11">
-        <v>4.0</v>
-      </c>
-      <c r="D41" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="E41" s="11">
-        <v>0.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="11"/>
-      <c r="K55" s="11"/>
-      <c r="L55" s="11"/>
-      <c r="M55" s="11"/>
-      <c r="N55" s="11"/>
-      <c r="O55" s="1"/>
-      <c r="P55" s="1"/>
-      <c r="Q55" s="1"/>
-      <c r="R55" s="1"/>
-      <c r="S55" s="1"/>
-      <c r="T55" s="1"/>
-      <c r="U55" s="1"/>
-      <c r="V55" s="1"/>
-      <c r="W55" s="1"/>
-      <c r="X55" s="1"/>
-      <c r="Y55" s="1"/>
-      <c r="Z55" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="B55" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="C55" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="D55" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="E55" s="11">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="1"/>
-      <c r="S56" s="1"/>
-      <c r="T56" s="1"/>
-      <c r="U56" s="1"/>
-      <c r="V56" s="1"/>
-      <c r="W56" s="1"/>
-      <c r="X56" s="1"/>
-      <c r="Y56" s="1"/>
-      <c r="Z56" s="1"/>
+      <c r="A56" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="C56" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="D56" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="E56" s="11">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
-      <c r="P57" s="1"/>
-      <c r="Q57" s="1"/>
-      <c r="R57" s="1"/>
-      <c r="S57" s="1"/>
-      <c r="T57" s="1"/>
-      <c r="U57" s="1"/>
-      <c r="V57" s="1"/>
-      <c r="W57" s="1"/>
-      <c r="X57" s="1"/>
-      <c r="Y57" s="1"/>
-      <c r="Z57" s="1"/>
+      <c r="A57" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="11">
+        <v>6.0</v>
+      </c>
+      <c r="C57" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="D57" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="E57" s="11">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="1"/>
-      <c r="R58" s="1"/>
-      <c r="S58" s="1"/>
-      <c r="T58" s="1"/>
-      <c r="U58" s="1"/>
-      <c r="V58" s="1"/>
-      <c r="W58" s="1"/>
-      <c r="X58" s="1"/>
-      <c r="Y58" s="1"/>
-      <c r="Z58" s="1"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="1"/>
-      <c r="R59" s="1"/>
-      <c r="S59" s="1"/>
-      <c r="T59" s="1"/>
-      <c r="U59" s="1"/>
-      <c r="V59" s="1"/>
-      <c r="W59" s="1"/>
-      <c r="X59" s="1"/>
-      <c r="Y59" s="1"/>
-      <c r="Z59" s="1"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
-      <c r="Q60" s="1"/>
-      <c r="R60" s="1"/>
-      <c r="S60" s="1"/>
-      <c r="T60" s="1"/>
-      <c r="U60" s="1"/>
-      <c r="V60" s="1"/>
-      <c r="W60" s="1"/>
-      <c r="X60" s="1"/>
-      <c r="Y60" s="1"/>
-      <c r="Z60" s="1"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
-      <c r="O61" s="1"/>
-      <c r="P61" s="1"/>
-      <c r="Q61" s="1"/>
-      <c r="R61" s="1"/>
-      <c r="S61" s="1"/>
-      <c r="T61" s="1"/>
-      <c r="U61" s="1"/>
-      <c r="V61" s="1"/>
-      <c r="W61" s="1"/>
-      <c r="X61" s="1"/>
-      <c r="Y61" s="1"/>
-      <c r="Z61" s="1"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
-      <c r="O62" s="1"/>
-      <c r="P62" s="1"/>
-      <c r="Q62" s="1"/>
-      <c r="R62" s="1"/>
-      <c r="S62" s="1"/>
-      <c r="T62" s="1"/>
-      <c r="U62" s="1"/>
-      <c r="V62" s="1"/>
-      <c r="W62" s="1"/>
-      <c r="X62" s="1"/>
-      <c r="Y62" s="1"/>
-      <c r="Z62" s="1"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-      <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
-      <c r="Q63" s="1"/>
-      <c r="R63" s="1"/>
-      <c r="S63" s="1"/>
-      <c r="T63" s="1"/>
-      <c r="U63" s="1"/>
-      <c r="V63" s="1"/>
-      <c r="W63" s="1"/>
-      <c r="X63" s="1"/>
-      <c r="Y63" s="1"/>
-      <c r="Z63" s="1"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
-      <c r="N64" s="1"/>
-      <c r="O64" s="1"/>
-      <c r="P64" s="1"/>
-      <c r="Q64" s="1"/>
-      <c r="R64" s="1"/>
-      <c r="S64" s="1"/>
-      <c r="T64" s="1"/>
-      <c r="U64" s="1"/>
-      <c r="V64" s="1"/>
-      <c r="W64" s="1"/>
-      <c r="X64" s="1"/>
-      <c r="Y64" s="1"/>
-      <c r="Z64" s="1"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
-      <c r="N65" s="1"/>
-      <c r="O65" s="1"/>
-      <c r="P65" s="1"/>
-      <c r="Q65" s="1"/>
-      <c r="R65" s="1"/>
-      <c r="S65" s="1"/>
-      <c r="T65" s="1"/>
-      <c r="U65" s="1"/>
-      <c r="V65" s="1"/>
-      <c r="W65" s="1"/>
-      <c r="X65" s="1"/>
-      <c r="Y65" s="1"/>
-      <c r="Z65" s="1"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
-      <c r="O66" s="1"/>
-      <c r="P66" s="1"/>
-      <c r="Q66" s="1"/>
-      <c r="R66" s="1"/>
-      <c r="S66" s="1"/>
-      <c r="T66" s="1"/>
-      <c r="U66" s="1"/>
-      <c r="V66" s="1"/>
-      <c r="W66" s="1"/>
-      <c r="X66" s="1"/>
-      <c r="Y66" s="1"/>
-      <c r="Z66" s="1"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
-      <c r="O67" s="1"/>
-      <c r="P67" s="1"/>
-      <c r="Q67" s="1"/>
-      <c r="R67" s="1"/>
-      <c r="S67" s="1"/>
-      <c r="T67" s="1"/>
-      <c r="U67" s="1"/>
-      <c r="V67" s="1"/>
-      <c r="W67" s="1"/>
-      <c r="X67" s="1"/>
-      <c r="Y67" s="1"/>
-      <c r="Z67" s="1"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
-      <c r="P68" s="1"/>
-      <c r="Q68" s="1"/>
-      <c r="R68" s="1"/>
-      <c r="S68" s="1"/>
-      <c r="T68" s="1"/>
-      <c r="U68" s="1"/>
-      <c r="V68" s="1"/>
-      <c r="W68" s="1"/>
-      <c r="X68" s="1"/>
-      <c r="Y68" s="1"/>
-      <c r="Z68" s="1"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
-      <c r="O69" s="1"/>
-      <c r="P69" s="1"/>
-      <c r="Q69" s="1"/>
-      <c r="R69" s="1"/>
-      <c r="S69" s="1"/>
-      <c r="T69" s="1"/>
-      <c r="U69" s="1"/>
-      <c r="V69" s="1"/>
-      <c r="W69" s="1"/>
-      <c r="X69" s="1"/>
-      <c r="Y69" s="1"/>
-      <c r="Z69" s="1"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
-      <c r="O70" s="1"/>
-      <c r="P70" s="1"/>
-      <c r="Q70" s="1"/>
-      <c r="R70" s="1"/>
-      <c r="S70" s="1"/>
-      <c r="T70" s="1"/>
-      <c r="U70" s="1"/>
-      <c r="V70" s="1"/>
-      <c r="W70" s="1"/>
-      <c r="X70" s="1"/>
-      <c r="Y70" s="1"/>
-      <c r="Z70" s="1"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
-      <c r="P71" s="1"/>
-      <c r="Q71" s="1"/>
-      <c r="R71" s="1"/>
-      <c r="S71" s="1"/>
-      <c r="T71" s="1"/>
-      <c r="U71" s="1"/>
-      <c r="V71" s="1"/>
-      <c r="W71" s="1"/>
-      <c r="X71" s="1"/>
-      <c r="Y71" s="1"/>
-      <c r="Z71" s="1"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
-      <c r="O72" s="1"/>
-      <c r="P72" s="1"/>
-      <c r="Q72" s="1"/>
-      <c r="R72" s="1"/>
-      <c r="S72" s="1"/>
-      <c r="T72" s="1"/>
-      <c r="U72" s="1"/>
-      <c r="V72" s="1"/>
-      <c r="W72" s="1"/>
-      <c r="X72" s="1"/>
-      <c r="Y72" s="1"/>
-      <c r="Z72" s="1"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
-      <c r="O73" s="1"/>
-      <c r="P73" s="1"/>
-      <c r="Q73" s="1"/>
-      <c r="R73" s="1"/>
-      <c r="S73" s="1"/>
-      <c r="T73" s="1"/>
-      <c r="U73" s="1"/>
-      <c r="V73" s="1"/>
-      <c r="W73" s="1"/>
-      <c r="X73" s="1"/>
-      <c r="Y73" s="1"/>
-      <c r="Z73" s="1"/>
+      <c r="A58" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="11">
+        <v>7.0</v>
+      </c>
+      <c r="C58" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="D58" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="E58" s="11">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="74">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
-      <c r="O74" s="1"/>
-      <c r="P74" s="1"/>
-      <c r="Q74" s="1"/>
-      <c r="R74" s="1"/>
-      <c r="S74" s="1"/>
-      <c r="T74" s="1"/>
-      <c r="U74" s="1"/>
-      <c r="V74" s="1"/>
-      <c r="W74" s="1"/>
-      <c r="X74" s="1"/>
-      <c r="Y74" s="1"/>
-      <c r="Z74" s="1"/>
+      <c r="A74" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="18"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="5"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="18"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="7"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="18"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E78" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F78" s="19"/>
+      <c r="G78" s="19"/>
+      <c r="H78" s="19"/>
+      <c r="I78" s="19"/>
+      <c r="J78" s="19"/>
+      <c r="K78" s="19"/>
+      <c r="L78" s="19"/>
+      <c r="M78" s="19"/>
+      <c r="N78" s="19"/>
+      <c r="O78" s="19"/>
+      <c r="P78" s="19"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="C79" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="D79" s="20"/>
+      <c r="E79" s="20"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="C80" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="D80" s="20"/>
+      <c r="E80" s="20"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="C81" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="C82" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="D82" s="20"/>
+      <c r="E82" s="20"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="C83" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="D83" s="20"/>
+      <c r="E83" s="20"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="11">
+        <v>5.0</v>
+      </c>
+      <c r="C84" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="D84" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="E84" s="20"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" s="11">
+        <v>6.0</v>
+      </c>
+      <c r="C85" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="D85" s="20"/>
+      <c r="E85" s="20"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" s="11">
+        <v>7.0</v>
+      </c>
+      <c r="C86" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="D86" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="E86" s="20"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="C87" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="D87" s="20"/>
+      <c r="E87" s="20"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="11">
+        <v>9.0</v>
+      </c>
+      <c r="C88" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="D88" s="20"/>
+      <c r="E88" s="20"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" s="11">
+        <v>10.0</v>
+      </c>
+      <c r="C89" s="20"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="11">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="1"/>
+      <c r="R93" s="1"/>
+      <c r="S93" s="1"/>
+      <c r="T93" s="1"/>
+      <c r="U93" s="1"/>
+      <c r="V93" s="1"/>
+      <c r="W93" s="1"/>
+      <c r="X93" s="1"/>
+      <c r="Y93" s="1"/>
+      <c r="Z93" s="1"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B94" s="11"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="11"/>
+      <c r="J94" s="11"/>
+      <c r="K94" s="11"/>
+      <c r="L94" s="11"/>
+      <c r="M94" s="11"/>
+      <c r="N94" s="11"/>
+      <c r="O94" s="1"/>
+      <c r="P94" s="1"/>
+      <c r="Q94" s="1"/>
+      <c r="R94" s="1"/>
+      <c r="S94" s="1"/>
+      <c r="T94" s="1"/>
+      <c r="U94" s="1"/>
+      <c r="V94" s="1"/>
+      <c r="W94" s="1"/>
+      <c r="X94" s="1"/>
+      <c r="Y94" s="1"/>
+      <c r="Z94" s="1"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="1"/>
+      <c r="Q95" s="1"/>
+      <c r="R95" s="1"/>
+      <c r="S95" s="1"/>
+      <c r="T95" s="1"/>
+      <c r="U95" s="1"/>
+      <c r="V95" s="1"/>
+      <c r="W95" s="1"/>
+      <c r="X95" s="1"/>
+      <c r="Y95" s="1"/>
+      <c r="Z95" s="1"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
+      <c r="Q96" s="1"/>
+      <c r="R96" s="1"/>
+      <c r="S96" s="1"/>
+      <c r="T96" s="1"/>
+      <c r="U96" s="1"/>
+      <c r="V96" s="1"/>
+      <c r="W96" s="1"/>
+      <c r="X96" s="1"/>
+      <c r="Y96" s="1"/>
+      <c r="Z96" s="1"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+      <c r="P97" s="1"/>
+      <c r="Q97" s="1"/>
+      <c r="R97" s="1"/>
+      <c r="S97" s="1"/>
+      <c r="T97" s="1"/>
+      <c r="U97" s="1"/>
+      <c r="V97" s="1"/>
+      <c r="W97" s="1"/>
+      <c r="X97" s="1"/>
+      <c r="Y97" s="1"/>
+      <c r="Z97" s="1"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="1"/>
+      <c r="R98" s="1"/>
+      <c r="S98" s="1"/>
+      <c r="T98" s="1"/>
+      <c r="U98" s="1"/>
+      <c r="V98" s="1"/>
+      <c r="W98" s="1"/>
+      <c r="X98" s="1"/>
+      <c r="Y98" s="1"/>
+      <c r="Z98" s="1"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="1"/>
+      <c r="Q99" s="1"/>
+      <c r="R99" s="1"/>
+      <c r="S99" s="1"/>
+      <c r="T99" s="1"/>
+      <c r="U99" s="1"/>
+      <c r="V99" s="1"/>
+      <c r="W99" s="1"/>
+      <c r="X99" s="1"/>
+      <c r="Y99" s="1"/>
+      <c r="Z99" s="1"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="1"/>
+      <c r="Q100" s="1"/>
+      <c r="R100" s="1"/>
+      <c r="S100" s="1"/>
+      <c r="T100" s="1"/>
+      <c r="U100" s="1"/>
+      <c r="V100" s="1"/>
+      <c r="W100" s="1"/>
+      <c r="X100" s="1"/>
+      <c r="Y100" s="1"/>
+      <c r="Z100" s="1"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="1"/>
+      <c r="Q101" s="1"/>
+      <c r="R101" s="1"/>
+      <c r="S101" s="1"/>
+      <c r="T101" s="1"/>
+      <c r="U101" s="1"/>
+      <c r="V101" s="1"/>
+      <c r="W101" s="1"/>
+      <c r="X101" s="1"/>
+      <c r="Y101" s="1"/>
+      <c r="Z101" s="1"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="O102" s="1"/>
+      <c r="P102" s="1"/>
+      <c r="Q102" s="1"/>
+      <c r="R102" s="1"/>
+      <c r="S102" s="1"/>
+      <c r="T102" s="1"/>
+      <c r="U102" s="1"/>
+      <c r="V102" s="1"/>
+      <c r="W102" s="1"/>
+      <c r="X102" s="1"/>
+      <c r="Y102" s="1"/>
+      <c r="Z102" s="1"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+      <c r="O103" s="1"/>
+      <c r="P103" s="1"/>
+      <c r="Q103" s="1"/>
+      <c r="R103" s="1"/>
+      <c r="S103" s="1"/>
+      <c r="T103" s="1"/>
+      <c r="U103" s="1"/>
+      <c r="V103" s="1"/>
+      <c r="W103" s="1"/>
+      <c r="X103" s="1"/>
+      <c r="Y103" s="1"/>
+      <c r="Z103" s="1"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+      <c r="O104" s="1"/>
+      <c r="P104" s="1"/>
+      <c r="Q104" s="1"/>
+      <c r="R104" s="1"/>
+      <c r="S104" s="1"/>
+      <c r="T104" s="1"/>
+      <c r="U104" s="1"/>
+      <c r="V104" s="1"/>
+      <c r="W104" s="1"/>
+      <c r="X104" s="1"/>
+      <c r="Y104" s="1"/>
+      <c r="Z104" s="1"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+      <c r="O105" s="1"/>
+      <c r="P105" s="1"/>
+      <c r="Q105" s="1"/>
+      <c r="R105" s="1"/>
+      <c r="S105" s="1"/>
+      <c r="T105" s="1"/>
+      <c r="U105" s="1"/>
+      <c r="V105" s="1"/>
+      <c r="W105" s="1"/>
+      <c r="X105" s="1"/>
+      <c r="Y105" s="1"/>
+      <c r="Z105" s="1"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+      <c r="O106" s="1"/>
+      <c r="P106" s="1"/>
+      <c r="Q106" s="1"/>
+      <c r="R106" s="1"/>
+      <c r="S106" s="1"/>
+      <c r="T106" s="1"/>
+      <c r="U106" s="1"/>
+      <c r="V106" s="1"/>
+      <c r="W106" s="1"/>
+      <c r="X106" s="1"/>
+      <c r="Y106" s="1"/>
+      <c r="Z106" s="1"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+      <c r="O107" s="1"/>
+      <c r="P107" s="1"/>
+      <c r="Q107" s="1"/>
+      <c r="R107" s="1"/>
+      <c r="S107" s="1"/>
+      <c r="T107" s="1"/>
+      <c r="U107" s="1"/>
+      <c r="V107" s="1"/>
+      <c r="W107" s="1"/>
+      <c r="X107" s="1"/>
+      <c r="Y107" s="1"/>
+      <c r="Z107" s="1"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+      <c r="O108" s="1"/>
+      <c r="P108" s="1"/>
+      <c r="Q108" s="1"/>
+      <c r="R108" s="1"/>
+      <c r="S108" s="1"/>
+      <c r="T108" s="1"/>
+      <c r="U108" s="1"/>
+      <c r="V108" s="1"/>
+      <c r="W108" s="1"/>
+      <c r="X108" s="1"/>
+      <c r="Y108" s="1"/>
+      <c r="Z108" s="1"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+      <c r="O109" s="1"/>
+      <c r="P109" s="1"/>
+      <c r="Q109" s="1"/>
+      <c r="R109" s="1"/>
+      <c r="S109" s="1"/>
+      <c r="T109" s="1"/>
+      <c r="U109" s="1"/>
+      <c r="V109" s="1"/>
+      <c r="W109" s="1"/>
+      <c r="X109" s="1"/>
+      <c r="Y109" s="1"/>
+      <c r="Z109" s="1"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+      <c r="O110" s="1"/>
+      <c r="P110" s="1"/>
+      <c r="Q110" s="1"/>
+      <c r="R110" s="1"/>
+      <c r="S110" s="1"/>
+      <c r="T110" s="1"/>
+      <c r="U110" s="1"/>
+      <c r="V110" s="1"/>
+      <c r="W110" s="1"/>
+      <c r="X110" s="1"/>
+      <c r="Y110" s="1"/>
+      <c r="Z110" s="1"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+      <c r="O111" s="1"/>
+      <c r="P111" s="1"/>
+      <c r="Q111" s="1"/>
+      <c r="R111" s="1"/>
+      <c r="S111" s="1"/>
+      <c r="T111" s="1"/>
+      <c r="U111" s="1"/>
+      <c r="V111" s="1"/>
+      <c r="W111" s="1"/>
+      <c r="X111" s="1"/>
+      <c r="Y111" s="1"/>
+      <c r="Z111" s="1"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+      <c r="O112" s="1"/>
+      <c r="P112" s="1"/>
+      <c r="Q112" s="1"/>
+      <c r="R112" s="1"/>
+      <c r="S112" s="1"/>
+      <c r="T112" s="1"/>
+      <c r="U112" s="1"/>
+      <c r="V112" s="1"/>
+      <c r="W112" s="1"/>
+      <c r="X112" s="1"/>
+      <c r="Y112" s="1"/>
+      <c r="Z112" s="1"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+      <c r="O113" s="1"/>
+      <c r="P113" s="1"/>
+      <c r="Q113" s="1"/>
+      <c r="R113" s="1"/>
+      <c r="S113" s="1"/>
+      <c r="T113" s="1"/>
+      <c r="U113" s="1"/>
+      <c r="V113" s="1"/>
+      <c r="W113" s="1"/>
+      <c r="X113" s="1"/>
+      <c r="Y113" s="1"/>
+      <c r="Z113" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A31:E33"/>
+  <mergeCells count="9">
     <mergeCell ref="A2:E7"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A26:E28"/>
+    <mergeCell ref="A48:E50"/>
+    <mergeCell ref="A74:E76"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
